--- a/CampaignNew.xlsx
+++ b/CampaignNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aneesha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8FD318-281F-4304-ACF5-A00966B677EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937113ED-E7F4-493D-9F30-10E2E3A73D8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -265,13 +265,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J20" totalsRowShown="0">
-  <autoFilter ref="A1:J20" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Step 1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -575,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +645,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>17</v>
       </c>
@@ -665,7 +659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>21</v>
       </c>
@@ -679,7 +673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>25</v>
       </c>
@@ -690,7 +684,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -713,7 +707,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>31</v>
       </c>
@@ -724,7 +718,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>34</v>
       </c>
@@ -761,7 +755,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>18</v>
       </c>
@@ -798,7 +792,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>17</v>
       </c>
@@ -812,7 +806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>21</v>
       </c>
@@ -826,7 +820,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>25</v>
       </c>
@@ -837,7 +831,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -860,7 +854,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>31</v>
       </c>
@@ -871,7 +865,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>34</v>
       </c>
@@ -908,7 +902,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>18</v>
       </c>
@@ -919,7 +913,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>22</v>
       </c>
